--- a/report/regression_graphs.xlsx
+++ b/report/regression_graphs.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
-    <t>tfidf</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>/r/askreddit</t>
   </si>
@@ -42,9 +33,6 @@
     <t>/r/askscience</t>
   </si>
   <si>
-    <t>Limited to 10k</t>
-  </si>
-  <si>
     <t>/r/askreddit with buckets = vocabSize = 10000</t>
   </si>
   <si>
@@ -88,16 +76,65 @@
   </si>
   <si>
     <t>(metadata,116.28251182008567)</t>
+  </si>
+  <si>
+    <t>Bag of Words</t>
+  </si>
+  <si>
+    <t>TF-IDF</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Feature Type</t>
+  </si>
+  <si>
+    <t>Regression large amount of comments</t>
+  </si>
+  <si>
+    <t>reddits</t>
+  </si>
+  <si>
+    <t>/r/videos</t>
+  </si>
+  <si>
+    <t>Training RMSE</t>
+  </si>
+  <si>
+    <t>Test RMSE</t>
+  </si>
+  <si>
+    <t>/r/music</t>
+  </si>
+  <si>
+    <t>num comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,13 +157,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -158,7 +203,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -180,13 +225,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>bag</c:v>
+                  <c:v>Bag of Words</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>tfidf</c:v>
+                  <c:v>TF-IDF</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>metadata</c:v>
+                  <c:v>Metadata</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -330,7 +375,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -352,13 +397,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>bag</c:v>
+                  <c:v>Bag of Words</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>tfidf</c:v>
+                  <c:v>TF-IDF</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>metadata</c:v>
+                  <c:v>Metadata</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -502,7 +547,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -524,13 +569,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>bag</c:v>
+                  <c:v>Bag of Words</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>tfidf</c:v>
+                  <c:v>TF-IDF</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>metadata</c:v>
+                  <c:v>Metadata</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -684,16 +729,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -717,15 +762,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1071,33 +1116,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>144.70446290377299</v>
@@ -1111,7 +1160,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>85.388286820000005</v>
@@ -1125,7 +1174,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>36.673371574000001</v>
@@ -1139,7 +1188,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>117.94632780000001</v>
@@ -1153,87 +1202,162 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <v>125.322</v>
+      </c>
+      <c r="C43">
+        <v>99.230570049248698</v>
+      </c>
+      <c r="D43">
+        <v>45.7488535285406</v>
+      </c>
+      <c r="E43">
+        <v>67.055379744093301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>149.42339999999999</v>
+      </c>
+      <c r="C44">
+        <v>112.44807444760001</v>
+      </c>
+      <c r="D44">
+        <v>79.432850501459995</v>
+      </c>
+      <c r="E44">
+        <v>87.212370158633206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>1000000</v>
+      </c>
+      <c r="C45">
+        <v>550192</v>
+      </c>
+      <c r="D45">
+        <v>114458</v>
+      </c>
+      <c r="E45">
+        <v>288522</v>
       </c>
     </row>
   </sheetData>

--- a/report/regression_graphs.xlsx
+++ b/report/regression_graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,16 +99,16 @@
     <t>/r/videos</t>
   </si>
   <si>
-    <t>Training RMSE</t>
-  </si>
-  <si>
-    <t>Test RMSE</t>
-  </si>
-  <si>
     <t>/r/music</t>
   </si>
   <si>
     <t>num comments</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -157,8 +157,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -167,11 +179,23 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,6 +719,223 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$42:$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>/r/askreddit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>/r/videos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>/r/music</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>/r/movies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>125.322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.2305700492487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.7488535285406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.0553797440933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$42:$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>/r/askreddit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>/r/videos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>/r/music</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>/r/movies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$44:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>149.4234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.4480744476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.43285050146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.21237015863321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2143380280"/>
+        <c:axId val="-2144864392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2143380280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144864392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2144864392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143380280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -786,6 +1027,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1118,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1303,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
@@ -1311,7 +1582,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>125.322</v>
@@ -1328,7 +1599,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B44">
         <v>149.42339999999999</v>
@@ -1345,7 +1616,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>1000000</v>
